--- a/Small_molecule_data_large_array/AAs/Reformatted_AA_csvs/V_repeat_5.xlsx
+++ b/Small_molecule_data_large_array/AAs/Reformatted_AA_csvs/V_repeat_5.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A3:Y50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -354,8 +354,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -412,9 +410,6 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
@@ -1760,7 +1755,6 @@
         <v>10598</v>
       </c>
     </row>
-    <row r="32"/>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
@@ -3117,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3125,6 +3119,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -3133,7 +3128,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>1:6</t>
@@ -3209,6 +3203,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
@@ -3330,7 +3325,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CCHept-I17K-L24E</t>
+          <t>CCHept-I17K-I24E</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3389,7 +3384,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CCHept-L21A</t>
+          <t>CCHept-I24A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
